--- a/ModelosEnriquecidos/Modelo enriquecido - Personalizaciones.xlsx
+++ b/ModelosEnriquecidos/Modelo enriquecido - Personalizaciones.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\archivos\Downloads\modelos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Información\Downloads\DOO-working-group\ModelosEnriquecidos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFF3E16-3EAD-491E-81F2-505027D8B920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2D1C44-C209-4ECF-A8A1-7C1164861201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="2" activeTab="5" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="91">
   <si>
     <t>Descripción</t>
   </si>
@@ -185,12 +185,6 @@
   </si>
   <si>
     <t>NO</t>
-  </si>
-  <si>
-    <t>Unico</t>
-  </si>
-  <si>
-    <t>Atributo que es unico y no se debe repetir en ningun otro atributo</t>
   </si>
   <si>
     <t>Personalizacion</t>
@@ -791,6 +785,48 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -826,48 +862,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -898,23 +892,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>168089</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>56029</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>83553</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>58486</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>206189</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>170329</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>112128</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>163261</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
+        <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0917621F-92E9-298C-DA08-B25FBA8F2B66}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C65799A-377F-D1DD-CAF0-08FEA5120BE2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -937,8 +931,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7788089" y="2532529"/>
-          <a:ext cx="3848100" cy="3733800"/>
+          <a:off x="8447171" y="2941052"/>
+          <a:ext cx="3830220" cy="3756025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1324,58 +1318,58 @@
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>49</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>51</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="51" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C3" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1394,8 +1388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235BA608-57CC-45B0-8234-10CA49C3B004}">
   <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="135" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScale="135" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1425,70 +1419,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="75" t="str">
+      <c r="B2" s="57" t="str">
         <f>'Listado Objetos de Dominio'!$A$2</f>
         <v>Personalizacion</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="76" t="str">
+      <c r="B3" s="58" t="str">
         <f>'Listado Objetos de Dominio'!$B$2</f>
         <v>Objeto de dominio que se encarga de la personalización de un usuario sobre el app</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -1595,7 +1589,7 @@
         <v>44</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q5" s="33"/>
       <c r="R5" s="22"/>
@@ -1604,10 +1598,10 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -1623,7 +1617,7 @@
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q6" s="33"/>
       <c r="R6" s="22"/>
@@ -1632,10 +1626,10 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B7" s="52" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -1657,11 +1651,11 @@
       <c r="T7" s="30"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="79"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
@@ -1675,55 +1669,49 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>40</v>
-      </c>
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="37"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="80" t="s">
+      <c r="A13" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68" t="s">
+      <c r="B13" s="63"/>
+      <c r="C13" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68" t="s">
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68" t="s">
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="68" t="s">
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="P13" s="68"/>
-      <c r="Q13" s="68" t="s">
+      <c r="P13" s="63"/>
+      <c r="Q13" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="R13" s="69"/>
+      <c r="R13" s="66"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="81"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
+      <c r="A14" s="64"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
       <c r="G14" s="18" t="s">
         <v>28</v>
       </c>
@@ -1736,12 +1724,12 @@
       <c r="J14" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="70" t="s">
+      <c r="K14" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="L14" s="70"/>
-      <c r="M14" s="70"/>
-      <c r="N14" s="70"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="65"/>
       <c r="O14" s="18" t="s">
         <v>30</v>
       </c>
@@ -1756,88 +1744,88 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="71" t="s">
+      <c r="A15" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="72"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
       <c r="G15" s="19"/>
       <c r="H15" s="20"/>
       <c r="I15" s="21"/>
       <c r="J15" s="20"/>
-      <c r="K15" s="73"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="73"/>
-      <c r="N15" s="73"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="69"/>
       <c r="O15" s="19"/>
       <c r="P15" s="19"/>
       <c r="Q15" s="19"/>
       <c r="R15" s="25"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="66"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
       <c r="G16" s="45"/>
       <c r="H16" s="43"/>
       <c r="I16" s="44"/>
       <c r="J16" s="38"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="60"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="74"/>
       <c r="O16" s="22"/>
       <c r="P16" s="23"/>
       <c r="Q16" s="23"/>
       <c r="R16" s="26"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="61" t="s">
+      <c r="A17" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="62"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
       <c r="G17" s="41"/>
       <c r="H17" s="39"/>
       <c r="I17" s="40"/>
       <c r="J17" s="42"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="64"/>
-      <c r="N17" s="64"/>
+      <c r="K17" s="78"/>
+      <c r="L17" s="78"/>
+      <c r="M17" s="78"/>
+      <c r="N17" s="78"/>
       <c r="O17" s="27"/>
       <c r="P17" s="28"/>
       <c r="Q17" s="28"/>
       <c r="R17" s="29"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="58"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
       <c r="G18" s="47"/>
       <c r="H18" s="48"/>
       <c r="I18" s="46"/>
       <c r="J18" s="47"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="70"/>
       <c r="O18" s="30"/>
       <c r="P18" s="31"/>
       <c r="Q18" s="31"/>
@@ -1845,6 +1833,20 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="K15:N15"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
@@ -1854,20 +1856,6 @@
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="J13:N13"/>
     <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{F92E8141-0BAA-4CFF-A2AA-790349ADA214}"/>
@@ -1895,7 +1883,7 @@
   <sheetViews>
     <sheetView zoomScale="121" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1925,70 +1913,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="75" t="str">
+      <c r="B2" s="57" t="str">
         <f>'Listado Objetos de Dominio'!$A$3</f>
         <v>Fuente</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="76" t="str">
+      <c r="B3" s="58" t="str">
         <f>'Listado Objetos de Dominio'!$B$3</f>
         <v>Objeto de dominio que contiene las personalizaciones del tipo de fuente</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -2095,7 +2083,7 @@
         <v>44</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="Q5" s="33"/>
       <c r="R5" s="22"/>
@@ -2119,13 +2107,13 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>46</v>
@@ -2143,7 +2131,7 @@
         <v>46</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q6" s="33"/>
       <c r="R6" s="22"/>
@@ -2152,10 +2140,10 @@
     </row>
     <row r="7" spans="1:20" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
@@ -2167,13 +2155,13 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>46</v>
@@ -2191,7 +2179,7 @@
         <v>46</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q7" s="33"/>
       <c r="R7" s="22"/>
@@ -2200,10 +2188,10 @@
     </row>
     <row r="8" spans="1:20" ht="51" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C8" s="5">
         <v>0</v>
@@ -2221,13 +2209,13 @@
         <v>2</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I8" s="5">
         <v>1</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>46</v>
@@ -2245,7 +2233,7 @@
         <v>46</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q8" s="33"/>
       <c r="R8" s="22"/>
@@ -2254,11 +2242,11 @@
     </row>
     <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="77" t="s">
+      <c r="A10" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="78"/>
-      <c r="C10" s="79"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="61"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
@@ -2271,56 +2259,50 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>40</v>
-      </c>
+    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="37"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="80" t="s">
+      <c r="A14" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68" t="s">
+      <c r="B14" s="63"/>
+      <c r="C14" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68" t="s">
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68" t="s">
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="68"/>
-      <c r="O14" s="68" t="s">
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="P14" s="68"/>
-      <c r="Q14" s="68" t="s">
+      <c r="P14" s="63"/>
+      <c r="Q14" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="R14" s="69"/>
+      <c r="R14" s="66"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="81"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
+      <c r="A15" s="64"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
       <c r="G15" s="18" t="s">
         <v>28</v>
       </c>
@@ -2333,12 +2315,12 @@
       <c r="J15" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K15" s="70" t="s">
+      <c r="K15" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="L15" s="70"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="70"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="65"/>
       <c r="O15" s="18" t="s">
         <v>30</v>
       </c>
@@ -2353,88 +2335,88 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="71" t="s">
+      <c r="A16" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="72"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
       <c r="G16" s="19"/>
       <c r="H16" s="20"/>
       <c r="I16" s="21"/>
       <c r="J16" s="20"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="73"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="69"/>
       <c r="O16" s="19"/>
       <c r="P16" s="19"/>
       <c r="Q16" s="19"/>
       <c r="R16" s="25"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="65" t="s">
+      <c r="A17" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="66"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
       <c r="G17" s="45"/>
       <c r="H17" s="43"/>
       <c r="I17" s="44"/>
       <c r="J17" s="38"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="60"/>
-      <c r="M17" s="60"/>
-      <c r="N17" s="60"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="74"/>
+      <c r="N17" s="74"/>
       <c r="O17" s="22"/>
       <c r="P17" s="23"/>
       <c r="Q17" s="23"/>
       <c r="R17" s="26"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="61" t="s">
+      <c r="A18" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="62"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
       <c r="G18" s="41"/>
       <c r="H18" s="39"/>
       <c r="I18" s="40"/>
       <c r="J18" s="42"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="64"/>
-      <c r="M18" s="64"/>
-      <c r="N18" s="64"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="78"/>
+      <c r="N18" s="78"/>
       <c r="O18" s="27"/>
       <c r="P18" s="28"/>
       <c r="Q18" s="28"/>
       <c r="R18" s="29"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="57" t="s">
+      <c r="A19" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="58"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
       <c r="G19" s="47"/>
       <c r="H19" s="48"/>
       <c r="I19" s="46"/>
       <c r="J19" s="47"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="70"/>
       <c r="O19" s="30"/>
       <c r="P19" s="31"/>
       <c r="Q19" s="31"/>
@@ -2442,17 +2424,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="K16:N16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="K17:N17"/>
@@ -2465,6 +2436,17 @@
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="J14:N14"/>
     <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="K19:N19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{BD3FFCC5-4B44-4838-A36D-76DB08190487}"/>
@@ -2485,10 +2467,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3D88CD-1BA6-4157-9522-8201A0FEDE3C}">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView zoomScale="99" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2518,70 +2500,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="75" t="str">
+      <c r="B2" s="57" t="str">
         <f>'Listado Objetos de Dominio'!$A$5</f>
         <v>PersonalizaciónUsuario</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="76" t="str">
+      <c r="B3" s="58" t="str">
         <f>'Listado Objetos de Dominio'!$B$5</f>
         <v>Objeto de dominio encargado de asociar una personalización a un usuario</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -2633,19 +2615,19 @@
         <v>0</v>
       </c>
       <c r="Q4" s="36" t="str">
+        <f>A15</f>
+        <v>Reponsabilidad 1</v>
+      </c>
+      <c r="R4" s="34" t="str">
         <f>A16</f>
-        <v>Reponsabilidad 1</v>
-      </c>
-      <c r="R4" s="34" t="str">
+        <v>Reponsabilidad 2</v>
+      </c>
+      <c r="S4" s="35" t="str">
         <f>A17</f>
-        <v>Reponsabilidad 2</v>
-      </c>
-      <c r="S4" s="35" t="str">
+        <v>Reponsabilidad 3</v>
+      </c>
+      <c r="T4" s="2" t="str">
         <f>A18</f>
-        <v>Reponsabilidad 3</v>
-      </c>
-      <c r="T4" s="2" t="str">
-        <f>A19</f>
         <v>Reponsabilidad 4</v>
       </c>
     </row>
@@ -2688,7 +2670,7 @@
         <v>44</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Q5" s="33"/>
       <c r="R5" s="22"/>
@@ -2697,7 +2679,7 @@
     </row>
     <row r="6" spans="1:20" ht="51" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>41</v>
@@ -2712,11 +2694,11 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>46</v>
@@ -2734,7 +2716,7 @@
         <v>46</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q6" s="33"/>
       <c r="R6" s="22"/>
@@ -2743,7 +2725,7 @@
     </row>
     <row r="7" spans="1:20" ht="51" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>41</v>
@@ -2758,11 +2740,11 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>46</v>
@@ -2780,7 +2762,7 @@
         <v>46</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Q7" s="33"/>
       <c r="R7" s="22"/>
@@ -2789,11 +2771,11 @@
     </row>
     <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="79"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
@@ -2806,225 +2788,214 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="51" x14ac:dyDescent="0.25">
-      <c r="A12" s="53" t="s">
+    <row r="11" spans="1:20" ht="51" x14ac:dyDescent="0.25">
+      <c r="A11" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" s="55" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    </row>
+    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="P13" s="63"/>
+      <c r="Q13" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="R13" s="66"/>
+    </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="80" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68" t="s">
+      <c r="A14" s="64"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68" t="s">
-        <v>25</v>
-      </c>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="68"/>
-      <c r="O14" s="68" t="s">
-        <v>26</v>
-      </c>
-      <c r="P14" s="68"/>
-      <c r="Q14" s="68" t="s">
-        <v>27</v>
-      </c>
-      <c r="R14" s="69"/>
+      <c r="J14" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="L14" s="65"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="65"/>
+      <c r="O14" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="P14" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="R14" s="24" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="81"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="J15" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="K15" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="L15" s="70"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="70"/>
-      <c r="O15" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="R15" s="24" t="s">
-        <v>32</v>
-      </c>
+      <c r="A15" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="68"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="69"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="25"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="71" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="72"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="25"/>
+      <c r="A16" s="79" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="80"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="74"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="26"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="66"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="60"/>
-      <c r="M17" s="60"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="26"/>
+      <c r="A17" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="76"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="78"/>
+      <c r="L17" s="78"/>
+      <c r="M17" s="78"/>
+      <c r="N17" s="78"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="29"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="62"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="64"/>
-      <c r="M18" s="64"/>
-      <c r="N18" s="64"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="29"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="57" t="s">
+      <c r="A18" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="58"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="32"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="70"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="C14:F15"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:N14"/>
-    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
     <mergeCell ref="K15:N15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="K16:N16"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="C13:F14"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:F17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{0B6B7A21-4F42-4461-B988-DE8CBBB8B21F}"/>
-    <hyperlink ref="H19" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{A29B7F90-D824-4DAD-9FA9-495F9A36C796}"/>
+    <hyperlink ref="H18" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{A29B7F90-D824-4DAD-9FA9-495F9A36C796}"/>
     <hyperlink ref="R4" location="'Objeto Dominio N'!A17" display="'Objeto Dominio N'!A17" xr:uid="{E9D8D2B5-1A04-41BF-9815-B2A1291CEA12}"/>
     <hyperlink ref="S4" location="'Objeto Dominio N'!A18" display="'Objeto Dominio N'!A18" xr:uid="{43D6E7D0-C1EE-421C-81D4-88BA062E1DD3}"/>
     <hyperlink ref="T4" location="'Objeto Dominio N'!A19" display="'Objeto Dominio N'!A19" xr:uid="{DFFE25A9-85CA-4C20-92B1-340B3519D7CB}"/>
-    <hyperlink ref="A17:B17" location="'Objeto Dominio N'!R4" display="Reponsabilidad 2" xr:uid="{CC437FE8-5439-4F9D-A213-37CD4CE40D61}"/>
-    <hyperlink ref="A16:B16" location="'Objeto Dominio N'!Q4" display="Reponsabilidad 1" xr:uid="{569A762E-ABC8-4F9E-B1BC-206CEE185870}"/>
-    <hyperlink ref="A19:B19" location="'Objeto Dominio N'!T4" display="Reponsabilidad 4" xr:uid="{8F16CC7B-78EA-40A1-B4A4-EFB8DF25A1CD}"/>
+    <hyperlink ref="A16:B16" location="'Objeto Dominio N'!R4" display="Reponsabilidad 2" xr:uid="{CC437FE8-5439-4F9D-A213-37CD4CE40D61}"/>
+    <hyperlink ref="A15:B15" location="'Objeto Dominio N'!Q4" display="Reponsabilidad 1" xr:uid="{569A762E-ABC8-4F9E-B1BC-206CEE185870}"/>
+    <hyperlink ref="A18:B18" location="'Objeto Dominio N'!T4" display="Reponsabilidad 4" xr:uid="{8F16CC7B-78EA-40A1-B4A4-EFB8DF25A1CD}"/>
     <hyperlink ref="Q4" location="'Objeto Dominio N'!A16" display="'Objeto Dominio N'!A16" xr:uid="{1669EBF2-84DE-4EDB-8C3B-38EB8B625A26}"/>
     <hyperlink ref="A1:P1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{BCAD9F6E-1607-4E0B-B462-EB54499EDC59}"/>
-    <hyperlink ref="A18:B18" location="'Objeto Dominio N'!S4" display="Reponsabilidad 3" xr:uid="{4AEC65EE-67F5-4704-BC31-8B093F6B432C}"/>
+    <hyperlink ref="A17:B17" location="'Objeto Dominio N'!S4" display="Reponsabilidad 3" xr:uid="{4AEC65EE-67F5-4704-BC31-8B093F6B432C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3035,8 +3006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E079081-954D-420B-9277-BF83239A6D9F}">
   <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3066,70 +3037,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="74"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="75" t="str">
+      <c r="B2" s="57" t="str">
         <f>'Listado Objetos de Dominio'!$A$5</f>
         <v>PersonalizaciónUsuario</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="76" t="str">
+      <c r="B3" s="58" t="str">
         <f>'Listado Objetos de Dominio'!$B$5</f>
         <v>Objeto de dominio encargado de asociar una personalización a un usuario</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -3236,7 +3207,7 @@
         <v>44</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Q5" s="33"/>
       <c r="R5" s="22"/>
@@ -3245,7 +3216,7 @@
     </row>
     <row r="6" spans="1:20" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>41</v>
@@ -3282,7 +3253,7 @@
         <v>46</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Q6" s="33"/>
       <c r="R6" s="22"/>
@@ -3291,10 +3262,10 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B7" s="52" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -3317,10 +3288,10 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -3343,11 +3314,11 @@
     </row>
     <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="77" t="s">
+      <c r="A10" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="78"/>
-      <c r="C10" s="79"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="61"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
@@ -3360,57 +3331,51 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>40</v>
-      </c>
+    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="37"/>
     </row>
     <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="80" t="s">
+      <c r="A14" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68" t="s">
+      <c r="B14" s="63"/>
+      <c r="C14" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68" t="s">
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68" t="s">
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="68"/>
-      <c r="O14" s="68" t="s">
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="P14" s="68"/>
-      <c r="Q14" s="68" t="s">
+      <c r="P14" s="63"/>
+      <c r="Q14" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="R14" s="69"/>
+      <c r="R14" s="66"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="81"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
+      <c r="A15" s="64"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
       <c r="G15" s="18" t="s">
         <v>28</v>
       </c>
@@ -3423,12 +3388,12 @@
       <c r="J15" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K15" s="70" t="s">
+      <c r="K15" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="L15" s="70"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="70"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="65"/>
       <c r="O15" s="18" t="s">
         <v>30</v>
       </c>
@@ -3443,88 +3408,88 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="71" t="s">
+      <c r="A16" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="72"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
       <c r="G16" s="19"/>
       <c r="H16" s="20"/>
       <c r="I16" s="21"/>
       <c r="J16" s="20"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="73"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="69"/>
       <c r="O16" s="19"/>
       <c r="P16" s="19"/>
       <c r="Q16" s="19"/>
       <c r="R16" s="25"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="65" t="s">
+      <c r="A17" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="66"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
       <c r="G17" s="45"/>
       <c r="H17" s="43"/>
       <c r="I17" s="44"/>
       <c r="J17" s="38"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="60"/>
-      <c r="M17" s="60"/>
-      <c r="N17" s="60"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="74"/>
+      <c r="N17" s="74"/>
       <c r="O17" s="22"/>
       <c r="P17" s="23"/>
       <c r="Q17" s="23"/>
       <c r="R17" s="26"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="61" t="s">
+      <c r="A18" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="62"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
       <c r="G18" s="41"/>
       <c r="H18" s="39"/>
       <c r="I18" s="40"/>
       <c r="J18" s="42"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="64"/>
-      <c r="M18" s="64"/>
-      <c r="N18" s="64"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="78"/>
+      <c r="M18" s="78"/>
+      <c r="N18" s="78"/>
       <c r="O18" s="27"/>
       <c r="P18" s="28"/>
       <c r="Q18" s="28"/>
       <c r="R18" s="29"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="57" t="s">
+      <c r="A19" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="58"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
       <c r="G19" s="47"/>
       <c r="H19" s="48"/>
       <c r="I19" s="46"/>
       <c r="J19" s="47"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="70"/>
       <c r="O19" s="30"/>
       <c r="P19" s="31"/>
       <c r="Q19" s="31"/>
@@ -3532,17 +3497,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="K16:N16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="K17:N17"/>
@@ -3555,6 +3509,17 @@
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="J14:N14"/>
     <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="K19:N19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{EA4C24D9-310A-4E21-AC01-090B24F10E20}"/>
@@ -3577,9 +3542,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3721,21 +3689,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0d2457a1-fe8a-4cb2-a5c3-c59e87d2493e"/>
-    <ds:schemaRef ds:uri="ff57c5a0-3efd-4333-8513-2b909ca014ae"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3759,9 +3721,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0d2457a1-fe8a-4cb2-a5c3-c59e87d2493e"/>
+    <ds:schemaRef ds:uri="ff57c5a0-3efd-4333-8513-2b909ca014ae"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
